--- a/Students/Resources/Report2.xlsx
+++ b/Students/Resources/Report2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learn\C#\EPAM\EPAM_Task6\EPAM_Task6\Students\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7709078A-B8DA-47CA-ACC8-C7C6FDCBD1FD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D17C8A-AB4B-43F1-AF10-BB7CE93C53F2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{79F84382-7B2C-4BA6-A197-0A0775471292}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8304" xr2:uid="{587657C3-CB43-4082-B9CF-A749381648BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24CB12F3-3FE9-42B4-9CD4-6B95150E9314}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA09D15-C94E-4062-88A5-B3D964C7AD98}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -426,19 +426,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -460,24 +460,24 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:E4">
-    <sortCondition ref="C1"/>
+    <sortCondition ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
